--- a/input/test_scenario/output/MatrixModel_7.xlsx
+++ b/input/test_scenario/output/MatrixModel_7.xlsx
@@ -340,10 +340,10 @@
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.42499999999999993</v>
+        <v>0.425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.22499999999999998</v>
+        <v>0.225</v>
       </c>
       <c r="G3" t="n">
         <v>0.175</v>
@@ -484,16 +484,16 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>0.47500000000000003</v>
+        <v>0.475</v>
       </c>
       <c r="E5" t="n">
-        <v>0.17500000000000002</v>
+        <v>0.175</v>
       </c>
       <c r="F5" t="n">
-        <v>0.17500000000000002</v>
+        <v>0.175</v>
       </c>
       <c r="G5" t="n">
-        <v>0.17500000000000002</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="6">
